--- a/Analyze.xlsx
+++ b/Analyze.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>原始大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,10 @@
   </si>
   <si>
     <t>原始bzip2大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1.05) 用最少bit輸出String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -84,7 +88,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.000%"/>
+    <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -129,7 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -157,8 +161,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.8414728505757609E-2"/>
-          <c:y val="2.1525642628004833E-2"/>
+          <c:x val="9.8414728505757637E-2"/>
+          <c:y val="2.1525642628004844E-2"/>
           <c:w val="0.90158527149424239"/>
           <c:h val="0.80347678762376928"/>
         </c:manualLayout>
@@ -183,7 +187,7 @@
             <c:strRef>
               <c:f>[0]!NAMES</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>(1.00) 初版</c:v>
                 </c:pt>
@@ -201,6 +205,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>(1.041) Int、Date輸出1 byte時不加127再輸出了</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(1.05) 用最少bit輸出String</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -210,7 +217,7 @@
               <c:f>Sheet1!DATA1</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.57249153766313787</c:v>
                 </c:pt>
@@ -228,6 +235,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.32229839171619923</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28681789102561078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -251,7 +261,7 @@
             <c:strRef>
               <c:f>[0]!NAMES</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>(1.00) 初版</c:v>
                 </c:pt>
@@ -269,6 +279,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>(1.041) Int、Date輸出1 byte時不加127再輸出了</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(1.05) 用最少bit輸出String</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -278,7 +291,7 @@
               <c:f>[0]!DATA2</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.85102147794300764</c:v>
                 </c:pt>
@@ -296,31 +309,34 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.80145659219424015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0178631655512347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="88287488"/>
-        <c:axId val="89747456"/>
+        <c:axId val="150373120"/>
+        <c:axId val="150374656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88287488"/>
+        <c:axId val="150373120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89747456"/>
+        <c:crossAx val="150374656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89747456"/>
+        <c:axId val="150374656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -330,7 +346,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.000%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88287488"/>
+        <c:crossAx val="150373120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -341,10 +357,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.84234096460485797"/>
-          <c:y val="0.72192975878015253"/>
+          <c:x val="0.84234096460485808"/>
+          <c:y val="0.72192975878015264"/>
           <c:w val="0.12482845034186206"/>
-          <c:h val="9.9630376781414717E-2"/>
+          <c:h val="9.9630376781414745E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -352,7 +368,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -678,7 +694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -847,6 +863,25 @@
       <c r="E8" s="1">
         <f>D8/E1</f>
         <v>0.80145659219424015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>10026957</v>
+      </c>
+      <c r="C9" s="1">
+        <f>B9/C1</f>
+        <v>0.28681789102561078</v>
+      </c>
+      <c r="D9">
+        <v>1753423</v>
+      </c>
+      <c r="E9" s="1">
+        <f>D9/E1</f>
+        <v>1.0178631655512347</v>
       </c>
     </row>
   </sheetData>

--- a/Analyze.xlsx
+++ b/Analyze.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>原始大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,30 @@
   </si>
   <si>
     <t>(1.05) 用最少bit輸出String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因為bit alignment被打亂了，導致原本很多相同的byte變成很像亂數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1.051) 不再用最少bit輸出String，但當String只含有一種可能時，不輸出任何東西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1.052) 當Int只含有一種可能時，不輸出任何東西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bzip2壓縮率變差應該是誤差範圍吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1.06) Int中最大值和最小值的差值不是BigInt時，對所有數字做平移(num - min)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以將一些BigInt平移到Int區間內，節省儲存空間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,6 +178,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-TW"/>
+  <c:style val="18"/>
   <c:chart>
     <c:plotArea>
       <c:layout>
@@ -161,8 +186,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.8414728505757637E-2"/>
-          <c:y val="2.1525642628004844E-2"/>
+          <c:x val="9.8414728505757651E-2"/>
+          <c:y val="2.1525642628004851E-2"/>
           <c:w val="0.90158527149424239"/>
           <c:h val="0.80347678762376928"/>
         </c:manualLayout>
@@ -183,11 +208,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>[0]!NAMES</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>(1.00) 初版</c:v>
                 </c:pt>
@@ -208,6 +237,15 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>(1.05) 用最少bit輸出String</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(1.051) 不再用最少bit輸出String，但當String只含有一種可能時，不輸出任何東西</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(1.052) 當Int只含有一種可能時，不輸出任何東西</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(1.06) Int中最大值和最小值的差值不是BigInt時，對所有數字做平移(num - min)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -217,7 +255,7 @@
               <c:f>Sheet1!DATA1</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.57249153766313787</c:v>
                 </c:pt>
@@ -238,6 +276,15 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.28681789102561078</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30505174371980687</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29083415965101145</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26576212949252581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -257,11 +304,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>[0]!NAMES</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>(1.00) 初版</c:v>
                 </c:pt>
@@ -282,6 +333,15 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>(1.05) 用最少bit輸出String</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(1.051) 不再用最少bit輸出String，但當String只含有一種可能時，不輸出任何東西</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(1.052) 當Int只含有一種可能時，不輸出任何東西</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(1.06) Int中最大值和最小值的差值不是BigInt時，對所有數字做平移(num - min)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -291,7 +351,7 @@
               <c:f>[0]!DATA2</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.85102147794300764</c:v>
                 </c:pt>
@@ -312,31 +372,40 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.0178631655512347</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80042446206457374</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80315223455012075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.80084184202139608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="150373120"/>
-        <c:axId val="150374656"/>
+        <c:axId val="160535296"/>
+        <c:axId val="160536832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150373120"/>
+        <c:axId val="160535296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150374656"/>
+        <c:crossAx val="160536832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150374656"/>
+        <c:axId val="160536832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -346,7 +415,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.000%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150373120"/>
+        <c:crossAx val="160535296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -357,10 +426,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.84234096460485808"/>
+          <c:x val="0.84234096460485819"/>
           <c:y val="0.72192975878015264"/>
           <c:w val="0.12482845034186206"/>
-          <c:h val="9.9630376781414745E-2"/>
+          <c:h val="9.9836650853425926E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -368,7 +437,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -694,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -882,6 +951,72 @@
       <c r="E9" s="1">
         <f>D9/E1</f>
         <v>1.0178631655512347</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>10664400</v>
+      </c>
+      <c r="C10" s="1">
+        <f>B10/C1</f>
+        <v>0.30505174371980687</v>
+      </c>
+      <c r="D10">
+        <v>1378852</v>
+      </c>
+      <c r="E10" s="1">
+        <f>D10/E1</f>
+        <v>0.80042446206457374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>10167363</v>
+      </c>
+      <c r="C11" s="1">
+        <f>B11/C1</f>
+        <v>0.29083415965101145</v>
+      </c>
+      <c r="D11">
+        <v>1383551</v>
+      </c>
+      <c r="E11" s="1">
+        <f>D11/E1</f>
+        <v>0.80315223455012075</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>9290862</v>
+      </c>
+      <c r="C12" s="1">
+        <f>B12/C1</f>
+        <v>0.26576212949252581</v>
+      </c>
+      <c r="D12">
+        <v>1379571</v>
+      </c>
+      <c r="E12" s="1">
+        <f>D12/E1</f>
+        <v>0.80084184202139608</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Analyze.xlsx
+++ b/Analyze.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>原始大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,15 +95,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bzip2壓縮率變差應該是誤差範圍吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(1.06) Int中最大值和最小值的差值不是BigInt時，對所有數字做平移(num - min)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>可以將一些BigInt平移到Int區間內，節省儲存空間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bzip2壓縮率變差應該是誤差範圍吧(?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1.07) 對遞增的Int做delta encoding</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,8 +190,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.8414728505757651E-2"/>
-          <c:y val="2.1525642628004851E-2"/>
+          <c:x val="9.8414728505757665E-2"/>
+          <c:y val="2.1525642628004854E-2"/>
           <c:w val="0.90158527149424239"/>
           <c:h val="0.80347678762376928"/>
         </c:manualLayout>
@@ -216,7 +220,7 @@
             <c:strRef>
               <c:f>[0]!NAMES</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>(1.00) 初版</c:v>
                 </c:pt>
@@ -246,6 +250,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>(1.06) Int中最大值和最小值的差值不是BigInt時，對所有數字做平移(num - min)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(1.07) 對遞增的Int做delta encoding</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -255,7 +262,7 @@
               <c:f>Sheet1!DATA1</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.57249153766313787</c:v>
                 </c:pt>
@@ -285,6 +292,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.26576212949252581</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25722509150994521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -312,7 +322,7 @@
             <c:strRef>
               <c:f>[0]!NAMES</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>(1.00) 初版</c:v>
                 </c:pt>
@@ -342,6 +352,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>(1.06) Int中最大值和最小值的差值不是BigInt時，對所有數字做平移(num - min)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(1.07) 對遞增的Int做delta encoding</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -351,7 +364,7 @@
               <c:f>[0]!DATA2</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.85102147794300764</c:v>
                 </c:pt>
@@ -381,31 +394,34 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.80084184202139608</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64010179659141642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="160535296"/>
-        <c:axId val="160536832"/>
+        <c:axId val="168548608"/>
+        <c:axId val="172957696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160535296"/>
+        <c:axId val="168548608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160536832"/>
+        <c:crossAx val="172957696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160536832"/>
+        <c:axId val="172957696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -415,7 +431,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.000%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160535296"/>
+        <c:crossAx val="168548608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -426,7 +442,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.84234096460485819"/>
+          <c:x val="0.8423409646048583"/>
           <c:y val="0.72192975878015264"/>
           <c:w val="0.12482845034186206"/>
           <c:h val="9.9836650853425926E-2"/>
@@ -437,7 +453,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -763,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -775,7 +791,7 @@
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
+    <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -994,12 +1010,12 @@
         <v>0.80315223455012075</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>9290862</v>
@@ -1016,7 +1032,26 @@
         <v>0.80084184202139608</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>8992413</v>
+      </c>
+      <c r="C13" s="1">
+        <f>B13/C1</f>
+        <v>0.25722509150994521</v>
+      </c>
+      <c r="D13">
+        <v>1102672</v>
+      </c>
+      <c r="E13" s="1">
+        <f>D13/E1</f>
+        <v>0.64010179659141642</v>
       </c>
     </row>
   </sheetData>

--- a/Analyze.xlsx
+++ b/Analyze.xlsx
@@ -13,7 +13,9 @@
   </sheets>
   <definedNames>
     <definedName name="DATA1" localSheetId="0">OFFSET(Sheet1!$C$3,0,0,COUNTA(Sheet1!$C:$C)-2,1)</definedName>
-    <definedName name="DATA2">OFFSET(Sheet1!$E$3,0,0,COUNTA(Sheet1!$E:$E)-2,1)</definedName>
+    <definedName name="DATA2">OFFSET(Sheet1!$F$3,0,0,COUNTA(Sheet1!$F:$F)-2,1)</definedName>
+    <definedName name="DELTA1">OFFSET(Sheet1!$D$3,0,0,COUNTA(Sheet1!$D:$D)-2,1)</definedName>
+    <definedName name="DELTA2">OFFSET(Sheet1!$G$3,0,0,COUNTA(Sheet1!$G:$G)-2,1)</definedName>
     <definedName name="NAMES">OFFSET(Sheet1!$A$3,0,0,COUNTA(Sheet1!$A:$A)-2,1)</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>原始大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>因為bit alignment被打亂了，導致原本很多相同的byte變成很像亂數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(1.051) 不再用最少bit輸出String，但當String只含有一種可能時，不輸出任何東西</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,6 +106,18 @@
   </si>
   <si>
     <t>(1.07) 對遞增的Int做delta encoding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因為bit alignment被打亂了，導致原本很多相同的byte變成很像亂數。bzip2壓縮效率因而變差。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要差在有一個欄位會被存成0,1,2,3,4,5,…。做delta encoding後變成0,1,1,1,1,…。使bzip2效率變高，也使得在255內的數都能用1 byte儲存。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>變化率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,8 +125,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000%"/>
+    <numFmt numFmtId="191" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -157,7 +168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -169,6 +180,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -182,7 +196,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-TW"/>
-  <c:style val="18"/>
+  <c:style val="26"/>
   <c:chart>
     <c:plotArea>
       <c:layout>
@@ -190,12 +204,182 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.8414728505757665E-2"/>
-          <c:y val="2.1525642628004854E-2"/>
-          <c:w val="0.90158527149424239"/>
-          <c:h val="0.80347678762376928"/>
+          <c:x val="8.0747406574178227E-2"/>
+          <c:y val="1.0907096593147227E-2"/>
+          <c:w val="0.83850518685164355"/>
+          <c:h val="0.82425095863868314"/>
         </c:manualLayout>
       </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>變化率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C0504D">
+                <a:alpha val="70000"/>
+              </a:srgbClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="C00000"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>[0]!DELTA1</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.9930488350885582E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.28615788473326431</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.12716208063704304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.6446799425021212E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.11008587570561301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3572926462136081E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.660712276358725E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.6207308620730894E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.2122853616811886E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>變化率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0">
+                <a:alpha val="70000"/>
+              </a:srgbClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="0070C0"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>[0]!DELTA2</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.1211687754474156E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.8816509170802611E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.5528745150082965E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.5753695379491255E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3086811275822026E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27001658663074113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.21362272537773264</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4079074476447424E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.8766557936786841E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.200713845101122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="156850816"/>
+        <c:axId val="156848128"/>
+      </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
@@ -212,7 +396,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="37000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="37000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" baseline="0"/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="t"/>
             <c:showVal val="1"/>
           </c:dLbls>
@@ -305,7 +519,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
+              <c:f>Sheet1!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -314,9 +528,55 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="37000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="37000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" baseline="0"/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="t"/>
             <c:showVal val="1"/>
+            <c:separator>, </c:separator>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -413,12 +673,13 @@
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="low"/>
         <c:crossAx val="172957696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="172957696"/>
@@ -435,6 +696,33 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="156848128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+          <c:min val="-0.5"/>
+        </c:scaling>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="156850816"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="156850816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="156848128"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -444,16 +732,17 @@
           <c:yMode val="edge"/>
           <c:x val="0.8423409646048583"/>
           <c:y val="0.72192975878015264"/>
-          <c:w val="0.12482845034186206"/>
-          <c:h val="9.9836650853425926E-2"/>
+          <c:w val="0.12988101487314085"/>
+          <c:h val="0.12927911299868597"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -463,16 +752,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -782,7 +1071,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -790,9 +1079,10 @@
     <col min="1" max="1" width="24.125" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -807,10 +1097,16 @@
         <v>34959315</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>1722651</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -824,10 +1120,16 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="20.25" customHeight="1">
@@ -841,12 +1143,20 @@
         <f>B3/C1</f>
         <v>0.57249153766313787</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4" t="e">
+        <f>B3/B2-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E3">
         <v>1466013</v>
       </c>
-      <c r="E3" s="1">
-        <f>D3/E1</f>
+      <c r="F3" s="1">
+        <f>E3/F1</f>
         <v>0.85102147794300764</v>
+      </c>
+      <c r="G3" s="4" t="e">
+        <f>E3/E2-1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N3" s="1"/>
     </row>
@@ -861,14 +1171,22 @@
         <f>B4/C1</f>
         <v>0.57249096556954848</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
+        <f>B4/B3-1</f>
+        <v>-9.9930488350885582E-7</v>
+      </c>
+      <c r="E4">
         <v>1390936</v>
       </c>
-      <c r="E4" s="1">
-        <f>D4/E1</f>
+      <c r="F4" s="1">
+        <f>E4/F1</f>
         <v>0.80743923174223919</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="4">
+        <f>E4/E3-1</f>
+        <v>-5.1211687754474156E-2</v>
+      </c>
+      <c r="H4" t="s">
         <v>3</v>
       </c>
       <c r="N4" s="1"/>
@@ -884,12 +1202,20 @@
         <f>B5/C1</f>
         <v>0.40866816183326249</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
+        <f t="shared" ref="D5:D13" si="0">B5/B4-1</f>
+        <v>-0.28615788473326431</v>
+      </c>
+      <c r="E5">
         <v>1382755</v>
       </c>
-      <c r="E5" s="1">
-        <f>D5/E1</f>
+      <c r="F5" s="1">
+        <f>E5/F1</f>
         <v>0.80269015604437577</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" ref="G5:G13" si="1">E5/E4-1</f>
+        <v>-5.8816509170802611E-3</v>
       </c>
       <c r="N5" s="1"/>
     </row>
@@ -904,12 +1230,20 @@
         <f>B6/C1</f>
         <v>0.35670106808442897</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.12716208063704304</v>
+      </c>
+      <c r="E6">
         <v>1382402</v>
       </c>
-      <c r="E6" s="1">
-        <f>D6/E1</f>
+      <c r="F6" s="1">
+        <f>E6/F1</f>
         <v>0.80248523932009441</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="1"/>
+        <v>-2.5528745150082965E-4</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
@@ -923,12 +1257,20 @@
         <f>B7/C1</f>
         <v>0.32229839171619923</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.6446799425021212E-2</v>
+      </c>
+      <c r="E7">
         <v>1376077</v>
       </c>
-      <c r="E7" s="1">
-        <f>D7/E1</f>
+      <c r="F7" s="1">
+        <f>E7/F1</f>
         <v>0.79881357280145548</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>-4.5753695379491255E-3</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1">
@@ -942,12 +1284,20 @@
         <f>B8/C1</f>
         <v>0.32229839171619923</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1380630</v>
       </c>
-      <c r="E8" s="1">
-        <f>D8/E1</f>
+      <c r="F8" s="1">
+        <f>E8/F1</f>
         <v>0.80145659219424015</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3086811275822026E-3</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -961,20 +1311,28 @@
         <f>B9/C1</f>
         <v>0.28681789102561078</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.11008587570561301</v>
+      </c>
+      <c r="E9">
         <v>1753423</v>
       </c>
-      <c r="E9" s="1">
-        <f>D9/E1</f>
+      <c r="F9" s="1">
+        <f>E9/F1</f>
         <v>1.0178631655512347</v>
       </c>
-      <c r="F9" t="s">
-        <v>15</v>
+      <c r="G9" s="4">
+        <f t="shared" si="1"/>
+        <v>0.27001658663074113</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>10664400</v>
@@ -983,17 +1341,25 @@
         <f>B10/C1</f>
         <v>0.30505174371980687</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
+        <f>B10/B9-1</f>
+        <v>6.3572926462136081E-2</v>
+      </c>
+      <c r="E10">
         <v>1378852</v>
       </c>
-      <c r="E10" s="1">
-        <f>D10/E1</f>
+      <c r="F10" s="1">
+        <f>E10/F1</f>
         <v>0.80042446206457374</v>
+      </c>
+      <c r="G10" s="4">
+        <f>E10/E9-1</f>
+        <v>-0.21362272537773264</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>10167363</v>
@@ -1002,20 +1368,28 @@
         <f>B11/C1</f>
         <v>0.29083415965101145</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.660712276358725E-2</v>
+      </c>
+      <c r="E11">
         <v>1383551</v>
       </c>
-      <c r="E11" s="1">
-        <f>D11/E1</f>
+      <c r="F11" s="1">
+        <f>E11/F1</f>
         <v>0.80315223455012075</v>
       </c>
-      <c r="F11" t="s">
-        <v>20</v>
+      <c r="G11" s="4">
+        <f t="shared" si="1"/>
+        <v>3.4079074476447424E-3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>9290862</v>
@@ -1024,20 +1398,28 @@
         <f>B12/C1</f>
         <v>0.26576212949252581</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>-8.6207308620730894E-2</v>
+      </c>
+      <c r="E12">
         <v>1379571</v>
       </c>
-      <c r="E12" s="1">
-        <f>D12/E1</f>
+      <c r="F12" s="1">
+        <f>E12/F1</f>
         <v>0.80084184202139608</v>
       </c>
-      <c r="F12" t="s">
-        <v>19</v>
+      <c r="G12" s="4">
+        <f t="shared" si="1"/>
+        <v>-2.8766557936786841E-3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>8992413</v>
@@ -1046,12 +1428,23 @@
         <f>B13/C1</f>
         <v>0.25722509150994521</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.2122853616811886E-2</v>
+      </c>
+      <c r="E13">
         <v>1102672</v>
       </c>
-      <c r="E13" s="1">
-        <f>D13/E1</f>
+      <c r="F13" s="1">
+        <f>E13/F1</f>
         <v>0.64010179659141642</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.200713845101122</v>
+      </c>
+      <c r="H13" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Analyze.xlsx
+++ b/Analyze.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>原始大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,10 @@
   </si>
   <si>
     <t>變化率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1.08) 用最少byte輸出Int, String, Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +131,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000%"/>
-    <numFmt numFmtId="191" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -181,7 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -205,9 +209,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.0747406574178227E-2"/>
-          <c:y val="1.0907096593147227E-2"/>
-          <c:w val="0.83850518685164355"/>
-          <c:h val="0.82425095863868314"/>
+          <c:y val="1.0907096593147226E-2"/>
+          <c:w val="0.83850518685164332"/>
+          <c:h val="0.82425095863868336"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -257,7 +261,7 @@
               <c:f>[0]!DELTA1</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -290,6 +294,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-3.2122853616811886E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.23102820121807133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -339,7 +346,7 @@
               <c:f>[0]!DELTA2</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -372,13 +379,16 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-0.200713845101122</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.1671358300564592E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="156850816"/>
-        <c:axId val="156848128"/>
+        <c:axId val="156315008"/>
+        <c:axId val="156313472"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -434,7 +444,7 @@
             <c:strRef>
               <c:f>[0]!NAMES</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>(1.00) 初版</c:v>
                 </c:pt>
@@ -467,6 +477,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>(1.07) 對遞增的Int做delta encoding</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(1.08) 用最少byte輸出Int, String, Date</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -476,7 +489,7 @@
               <c:f>Sheet1!DATA1</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.57249153766313787</c:v>
                 </c:pt>
@@ -509,6 +522,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.25722509150994521</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19779884131024877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -582,7 +598,7 @@
             <c:strRef>
               <c:f>[0]!NAMES</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>(1.00) 初版</c:v>
                 </c:pt>
@@ -615,6 +631,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>(1.07) 對遞增的Int做delta encoding</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(1.08) 用最少byte輸出Int, String, Date</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -624,7 +643,7 @@
               <c:f>[0]!DATA2</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.85102147794300764</c:v>
                 </c:pt>
@@ -657,17 +676,20 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.64010179659141642</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.64468949311265022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="168548608"/>
-        <c:axId val="172957696"/>
+        <c:axId val="156301952"/>
+        <c:axId val="156311936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="168548608"/>
+        <c:axId val="156301952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,14 +697,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="172957696"/>
+        <c:crossAx val="156311936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172957696"/>
+        <c:axId val="156311936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -692,12 +714,12 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.000%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168548608"/>
+        <c:crossAx val="156301952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="156848128"/>
+        <c:axId val="156313472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -706,19 +728,20 @@
         <c:axPos val="r"/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156850816"/>
+        <c:crossAx val="156315008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="156850816"/>
+        <c:axId val="156315008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="156848128"/>
+        <c:crossAx val="156313472"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -730,10 +753,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.8423409646048583"/>
+          <c:x val="0.84234096460485852"/>
           <c:y val="0.72192975878015264"/>
           <c:w val="0.12988101487314085"/>
-          <c:h val="0.12927911299868597"/>
+          <c:h val="0.12927911299868589"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -742,7 +765,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1068,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1203,7 +1226,7 @@
         <v>0.40866816183326249</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:D13" si="0">B5/B4-1</f>
+        <f t="shared" ref="D5:D14" si="0">B5/B4-1</f>
         <v>-0.28615788473326431</v>
       </c>
       <c r="E5">
@@ -1214,7 +1237,7 @@
         <v>0.80269015604437577</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G13" si="1">E5/E4-1</f>
+        <f t="shared" ref="G5:G14" si="1">E5/E4-1</f>
         <v>-5.8816509170802611E-3</v>
       </c>
       <c r="N5" s="1"/>
@@ -1445,6 +1468,33 @@
       </c>
       <c r="H13" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>6914912</v>
+      </c>
+      <c r="C14" s="1">
+        <f>B14/C1</f>
+        <v>0.19779884131024877</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.23102820121807133</v>
+      </c>
+      <c r="E14">
+        <v>1110575</v>
+      </c>
+      <c r="F14" s="1">
+        <f>E14/F1</f>
+        <v>0.64468949311265022</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="1"/>
+        <v>7.1671358300564592E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Analyze.xlsx
+++ b/Analyze.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>原始大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,14 @@
   </si>
   <si>
     <t>(1.08) 用最少byte輸出Int, String, Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前只有區分輸出1byte或4bytes，現在會看資料大小輸出1,2,3,4bytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1.09) 用hashTable轉換IP，並用最少byte輸出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -261,7 +269,7 @@
               <c:f>[0]!DELTA1</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -296,7 +304,10 @@
                   <c:v>-3.2122853616811886E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.23102820121807133</c:v>
+                  <c:v>-0.24214857569375425</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.14728537253520335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -346,7 +357,7 @@
               <c:f>[0]!DELTA2</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -381,7 +392,10 @@
                   <c:v>-0.200713845101122</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.1671358300564592E-3</c:v>
+                  <c:v>6.9630860310228027E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.7259422704552625E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -444,7 +458,7 @@
             <c:strRef>
               <c:f>[0]!NAMES</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>(1.00) 初版</c:v>
                 </c:pt>
@@ -480,6 +494,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>(1.08) 用最少byte輸出Int, String, Date</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(1.09) 用hashTable轉換IP，並用最少byte輸出</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -489,7 +506,7 @@
               <c:f>Sheet1!DATA1</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.57249153766313787</c:v>
                 </c:pt>
@@ -524,7 +541,10 @@
                   <c:v>0.25722509150994521</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.19779884131024877</c:v>
+                  <c:v>0.19493840196811638</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16622682681282513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -598,7 +618,7 @@
             <c:strRef>
               <c:f>[0]!NAMES</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>(1.00) 初版</c:v>
                 </c:pt>
@@ -634,6 +654,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>(1.08) 用最少byte輸出Int, String, Date</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(1.09) 用hashTable轉換IP，並用最少byte輸出</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -643,7 +666,7 @@
               <c:f>[0]!DATA2</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.85102147794300764</c:v>
                 </c:pt>
@@ -678,7 +701,10 @@
                   <c:v>0.64010179659141642</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.64468949311265022</c:v>
+                  <c:v>0.64455888046969467</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.62054298868430113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1475,26 +1501,56 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>6914912</v>
+        <v>6814913</v>
       </c>
       <c r="C14" s="1">
         <f>B14/C1</f>
-        <v>0.19779884131024877</v>
+        <v>0.19493840196811638</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
-        <v>-0.23102820121807133</v>
+        <v>-0.24214857569375425</v>
       </c>
       <c r="E14">
-        <v>1110575</v>
+        <v>1110350</v>
       </c>
       <c r="F14" s="1">
         <f>E14/F1</f>
-        <v>0.64468949311265022</v>
+        <v>0.64455888046969467</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="1"/>
-        <v>7.1671358300564592E-3</v>
+        <v>6.9630860310228027E-3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>5811176</v>
+      </c>
+      <c r="C15" s="1">
+        <f>B15/C1</f>
+        <v>0.16622682681282513</v>
+      </c>
+      <c r="D15" s="4">
+        <f>B15/B14-1</f>
+        <v>-0.14728537253520335</v>
+      </c>
+      <c r="E15">
+        <v>1068979</v>
+      </c>
+      <c r="F15" s="1">
+        <f>E15/F1</f>
+        <v>0.62054298868430113</v>
+      </c>
+      <c r="G15" s="4">
+        <f>E15/E14-1</f>
+        <v>-3.7259422704552625E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Analyze.xlsx
+++ b/Analyze.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>原始大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,10 @@
   </si>
   <si>
     <t>(1.09) 用hashTable轉換IP，並用最少byte輸出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config檔加入判斷logserv的情況</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,8 +222,8 @@
           <c:yMode val="edge"/>
           <c:x val="8.0747406574178227E-2"/>
           <c:y val="1.0907096593147226E-2"/>
-          <c:w val="0.83850518685164332"/>
-          <c:h val="0.82425095863868336"/>
+          <c:w val="0.83850518685164321"/>
+          <c:h val="0.82425095863868358"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -269,7 +273,7 @@
               <c:f>[0]!DELTA1</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -308,6 +312,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-0.14728537253520335</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7208392931138183E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -357,7 +364,7 @@
               <c:f>[0]!DELTA2</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -396,13 +403,16 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-3.7259422704552625E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.394808504189605E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="156315008"/>
-        <c:axId val="156313472"/>
+        <c:axId val="185351552"/>
+        <c:axId val="185350016"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -458,7 +468,7 @@
             <c:strRef>
               <c:f>[0]!NAMES</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>(1.00) 初版</c:v>
                 </c:pt>
@@ -497,6 +507,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>(1.09) 用hashTable轉換IP，並用最少byte輸出</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>config檔加入判斷logserv的情況</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -506,7 +519,7 @@
               <c:f>Sheet1!DATA1</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.57249153766313787</c:v>
                 </c:pt>
@@ -545,6 +558,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.16622682681282513</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16908732336431651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -618,7 +634,7 @@
             <c:strRef>
               <c:f>[0]!NAMES</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>(1.00) 初版</c:v>
                 </c:pt>
@@ -657,6 +673,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>(1.09) 用hashTable轉換IP，並用最少byte輸出</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>config檔加入判斷logserv的情況</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -666,7 +685,7 @@
               <c:f>[0]!DATA2</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.85102147794300764</c:v>
                 </c:pt>
@@ -705,17 +724,20 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.62054298868430113</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.62202907031081744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="156301952"/>
-        <c:axId val="156311936"/>
+        <c:axId val="181926528"/>
+        <c:axId val="185348480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156301952"/>
+        <c:axId val="181926528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -723,14 +745,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="156311936"/>
+        <c:crossAx val="185348480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156311936"/>
+        <c:axId val="185348480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -740,12 +762,12 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.000%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156301952"/>
+        <c:crossAx val="181926528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="156313472"/>
+        <c:axId val="185350016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -754,19 +776,19 @@
         <c:axPos val="r"/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156315008"/>
+        <c:crossAx val="185351552"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="156315008"/>
+        <c:axId val="185351552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="156313472"/>
+        <c:crossAx val="185350016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -779,10 +801,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.84234096460485852"/>
+          <c:x val="0.84234096460485863"/>
           <c:y val="0.72192975878015264"/>
           <c:w val="0.12988101487314085"/>
-          <c:h val="0.12927911299868589"/>
+          <c:h val="0.12927911299868586"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -791,7 +813,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1117,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1551,6 +1573,33 @@
       <c r="G15" s="4">
         <f>E15/E14-1</f>
         <v>-3.7259422704552625E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>5911177</v>
+      </c>
+      <c r="C16" s="1">
+        <f>B16/C1</f>
+        <v>0.16908732336431651</v>
+      </c>
+      <c r="D16" s="4">
+        <f>B16/B15-1</f>
+        <v>1.7208392931138183E-2</v>
+      </c>
+      <c r="E16">
+        <v>1071539</v>
+      </c>
+      <c r="F16" s="1">
+        <f>E16/F1</f>
+        <v>0.62202907031081744</v>
+      </c>
+      <c r="G16" s="4">
+        <f>E16/E15-1</f>
+        <v>2.394808504189605E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Analyze.xlsx
+++ b/Analyze.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>原始大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,14 @@
   </si>
   <si>
     <t>config檔加入判斷logserv的情況</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config檔將flag設為string型態，而不是整數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正BUG：int被當成unsigned int輸出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -198,6 +206,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -222,8 +233,8 @@
           <c:yMode val="edge"/>
           <c:x val="8.0747406574178227E-2"/>
           <c:y val="1.0907096593147226E-2"/>
-          <c:w val="0.83850518685164321"/>
-          <c:h val="0.82425095863868358"/>
+          <c:w val="0.83850518685164299"/>
+          <c:h val="0.82425095863868392"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -273,7 +284,7 @@
               <c:f>[0]!DELTA1</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -315,6 +326,12 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.7208392931138183E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.3252937612932243E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.7711603567905758E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -364,7 +381,7 @@
               <c:f>[0]!DELTA2</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -406,13 +423,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2.394808504189605E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5075354233481413E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.0633084022532202E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="185351552"/>
-        <c:axId val="185350016"/>
+        <c:axId val="156781952"/>
+        <c:axId val="156780416"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -468,7 +491,7 @@
             <c:strRef>
               <c:f>[0]!NAMES</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>(1.00) 初版</c:v>
                 </c:pt>
@@ -510,6 +533,12 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>config檔加入判斷logserv的情況</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>config檔將flag設為string型態，而不是整數</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>修正BUG：int被當成unsigned int輸出</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -518,8 +547,8 @@
             <c:numRef>
               <c:f>Sheet1!DATA1</c:f>
               <c:numCache>
-                <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.57249153766313787</c:v>
                 </c:pt>
@@ -561,6 +590,12 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.16908732336431651</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16346467314934518</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.17943706848947127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -634,7 +669,7 @@
             <c:strRef>
               <c:f>[0]!NAMES</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>(1.00) 初版</c:v>
                 </c:pt>
@@ -676,6 +711,12 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>config檔加入判斷logserv的情況</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>config檔將flag設為string型態，而不是整數</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>修正BUG：int被當成unsigned int輸出</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -684,8 +725,8 @@
             <c:numRef>
               <c:f>[0]!DATA2</c:f>
               <c:numCache>
-                <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.85102147794300764</c:v>
                 </c:pt>
@@ -727,17 +768,23 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.62202907031081744</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.62230945211769539</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.62268677753067803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="181926528"/>
-        <c:axId val="185348480"/>
+        <c:axId val="156764800"/>
+        <c:axId val="156778880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181926528"/>
+        <c:axId val="156764800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -745,14 +792,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="185348480"/>
+        <c:crossAx val="156778880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185348480"/>
+        <c:axId val="156778880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -760,14 +807,14 @@
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181926528"/>
+        <c:crossAx val="156764800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="185350016"/>
+        <c:axId val="156780416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -776,19 +823,19 @@
         <c:axPos val="r"/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185351552"/>
+        <c:crossAx val="156781952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="185351552"/>
+        <c:axId val="156781952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="185350016"/>
+        <c:crossAx val="156780416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -804,7 +851,7 @@
           <c:x val="0.84234096460485863"/>
           <c:y val="0.72192975878015264"/>
           <c:w val="0.12988101487314085"/>
-          <c:h val="0.12927911299868586"/>
+          <c:h val="0.1292791129986858"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -813,7 +860,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1139,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1210,7 +1257,7 @@
       <c r="B3">
         <v>20013912</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="5">
         <f>B3/C1</f>
         <v>0.57249153766313787</v>
       </c>
@@ -1221,7 +1268,7 @@
       <c r="E3">
         <v>1466013</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="5">
         <f>E3/F1</f>
         <v>0.85102147794300764</v>
       </c>
@@ -1238,7 +1285,7 @@
       <c r="B4">
         <v>20013892</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5">
         <f>B4/C1</f>
         <v>0.57249096556954848</v>
       </c>
@@ -1249,7 +1296,7 @@
       <c r="E4">
         <v>1390936</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="5">
         <f>E4/F1</f>
         <v>0.80743923174223919</v>
       </c>
@@ -1269,7 +1316,7 @@
       <c r="B5">
         <v>14286759</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <f>B5/C1</f>
         <v>0.40866816183326249</v>
       </c>
@@ -1280,7 +1327,7 @@
       <c r="E5">
         <v>1382755</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="5">
         <f>E5/F1</f>
         <v>0.80269015604437577</v>
       </c>
@@ -1297,7 +1344,7 @@
       <c r="B6">
         <v>12470025</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5">
         <f>B6/C1</f>
         <v>0.35670106808442897</v>
       </c>
@@ -1308,7 +1355,7 @@
       <c r="E6">
         <v>1382402</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="5">
         <f>E6/F1</f>
         <v>0.80248523932009441</v>
       </c>
@@ -1324,7 +1371,7 @@
       <c r="B7">
         <v>11267331</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="5">
         <f>B7/C1</f>
         <v>0.32229839171619923</v>
       </c>
@@ -1335,7 +1382,7 @@
       <c r="E7">
         <v>1376077</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="5">
         <f>E7/F1</f>
         <v>0.79881357280145548</v>
       </c>
@@ -1351,7 +1398,7 @@
       <c r="B8">
         <v>11267331</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5">
         <f>B8/C1</f>
         <v>0.32229839171619923</v>
       </c>
@@ -1362,7 +1409,7 @@
       <c r="E8">
         <v>1380630</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="5">
         <f>E8/F1</f>
         <v>0.80145659219424015</v>
       </c>
@@ -1378,7 +1425,7 @@
       <c r="B9">
         <v>10026957</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5">
         <f>B9/C1</f>
         <v>0.28681789102561078</v>
       </c>
@@ -1389,7 +1436,7 @@
       <c r="E9">
         <v>1753423</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="5">
         <f>E9/F1</f>
         <v>1.0178631655512347</v>
       </c>
@@ -1408,7 +1455,7 @@
       <c r="B10">
         <v>10664400</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5">
         <f>B10/C1</f>
         <v>0.30505174371980687</v>
       </c>
@@ -1419,7 +1466,7 @@
       <c r="E10">
         <v>1378852</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="5">
         <f>E10/F1</f>
         <v>0.80042446206457374</v>
       </c>
@@ -1435,7 +1482,7 @@
       <c r="B11">
         <v>10167363</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="5">
         <f>B11/C1</f>
         <v>0.29083415965101145</v>
       </c>
@@ -1446,7 +1493,7 @@
       <c r="E11">
         <v>1383551</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="5">
         <f>E11/F1</f>
         <v>0.80315223455012075</v>
       </c>
@@ -1465,7 +1512,7 @@
       <c r="B12">
         <v>9290862</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="5">
         <f>B12/C1</f>
         <v>0.26576212949252581</v>
       </c>
@@ -1476,7 +1523,7 @@
       <c r="E12">
         <v>1379571</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="5">
         <f>E12/F1</f>
         <v>0.80084184202139608</v>
       </c>
@@ -1495,7 +1542,7 @@
       <c r="B13">
         <v>8992413</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="5">
         <f>B13/C1</f>
         <v>0.25722509150994521</v>
       </c>
@@ -1506,7 +1553,7 @@
       <c r="E13">
         <v>1102672</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="5">
         <f>E13/F1</f>
         <v>0.64010179659141642</v>
       </c>
@@ -1525,7 +1572,7 @@
       <c r="B14">
         <v>6814913</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="5">
         <f>B14/C1</f>
         <v>0.19493840196811638</v>
       </c>
@@ -1536,7 +1583,7 @@
       <c r="E14">
         <v>1110350</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="5">
         <f>E14/F1</f>
         <v>0.64455888046969467</v>
       </c>
@@ -1555,7 +1602,7 @@
       <c r="B15">
         <v>5811176</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="5">
         <f>B15/C1</f>
         <v>0.16622682681282513</v>
       </c>
@@ -1566,7 +1613,7 @@
       <c r="E15">
         <v>1068979</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="5">
         <f>E15/F1</f>
         <v>0.62054298868430113</v>
       </c>
@@ -1582,7 +1629,7 @@
       <c r="B16">
         <v>5911177</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="5">
         <f>B16/C1</f>
         <v>0.16908732336431651</v>
       </c>
@@ -1593,13 +1640,67 @@
       <c r="E16">
         <v>1071539</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="5">
         <f>E16/F1</f>
         <v>0.62202907031081744</v>
       </c>
       <c r="G16" s="4">
         <f>E16/E15-1</f>
         <v>2.394808504189605E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>5714613</v>
+      </c>
+      <c r="C17" s="5">
+        <f>B17/C1</f>
+        <v>0.16346467314934518</v>
+      </c>
+      <c r="D17" s="4">
+        <f>B17/B16-1</f>
+        <v>-3.3252937612932243E-2</v>
+      </c>
+      <c r="E17">
+        <v>1072022</v>
+      </c>
+      <c r="F17" s="5">
+        <f>E17/F1</f>
+        <v>0.62230945211769539</v>
+      </c>
+      <c r="G17" s="4">
+        <f>E17/E16-1</f>
+        <v>4.5075354233481413E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>6272997</v>
+      </c>
+      <c r="C18" s="5">
+        <f>B18/C1</f>
+        <v>0.17943706848947127</v>
+      </c>
+      <c r="D18" s="4">
+        <f>B18/B17-1</f>
+        <v>9.7711603567905758E-2</v>
+      </c>
+      <c r="E18">
+        <v>1072672</v>
+      </c>
+      <c r="F18" s="5">
+        <f>E18/F1</f>
+        <v>0.62268677753067803</v>
+      </c>
+      <c r="G18" s="4">
+        <f>E18/E17-1</f>
+        <v>6.0633084022532202E-4</v>
       </c>
     </row>
   </sheetData>

--- a/Analyze.xlsx
+++ b/Analyze.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>原始大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,10 @@
   </si>
   <si>
     <t>修正BUG：int被當成unsigned int輸出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多一個char記錄，用以代替之前的#if Action</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -233,8 +237,8 @@
           <c:yMode val="edge"/>
           <c:x val="8.0747406574178227E-2"/>
           <c:y val="1.0907096593147226E-2"/>
-          <c:w val="0.83850518685164299"/>
-          <c:h val="0.82425095863868392"/>
+          <c:w val="0.83850518685164288"/>
+          <c:h val="0.82425095863868403"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -284,7 +288,7 @@
               <c:f>[0]!DELTA1</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -332,6 +336,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>9.7711603567905758E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6411294314344405E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -381,7 +388,7 @@
               <c:f>[0]!DELTA2</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -429,13 +436,16 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>6.0633084022532202E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5037066316637731E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="156781952"/>
-        <c:axId val="156780416"/>
+        <c:axId val="158551424"/>
+        <c:axId val="158549888"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -491,7 +501,7 @@
             <c:strRef>
               <c:f>[0]!NAMES</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>(1.00) 初版</c:v>
                 </c:pt>
@@ -539,6 +549,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>修正BUG：int被當成unsigned int輸出</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>多一個char記錄，用以代替之前的#if Action</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -548,7 +561,7 @@
               <c:f>Sheet1!DATA1</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.57249153766313787</c:v>
                 </c:pt>
@@ -596,6 +609,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.17943706848947127</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.18238186303135517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -669,7 +685,7 @@
             <c:strRef>
               <c:f>[0]!NAMES</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>(1.00) 初版</c:v>
                 </c:pt>
@@ -717,6 +733,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>修正BUG：int被當成unsigned int輸出</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>多一個char記錄，用以代替之前的#if Action</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -726,7 +745,7 @@
               <c:f>[0]!DATA2</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.85102147794300764</c:v>
                 </c:pt>
@@ -774,17 +793,20 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.62268677753067803</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.62549117610009219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="156764800"/>
-        <c:axId val="156778880"/>
+        <c:axId val="158534272"/>
+        <c:axId val="158548352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156764800"/>
+        <c:axId val="158534272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -792,14 +814,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="156778880"/>
+        <c:crossAx val="158548352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156778880"/>
+        <c:axId val="158548352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -809,12 +831,12 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156764800"/>
+        <c:crossAx val="158534272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="156780416"/>
+        <c:axId val="158549888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -823,19 +845,19 @@
         <c:axPos val="r"/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156781952"/>
+        <c:crossAx val="158551424"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="156781952"/>
+        <c:axId val="158551424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="156780416"/>
+        <c:crossAx val="158549888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -851,7 +873,7 @@
           <c:x val="0.84234096460485863"/>
           <c:y val="0.72192975878015264"/>
           <c:w val="0.12988101487314085"/>
-          <c:h val="0.1292791129986858"/>
+          <c:h val="0.12927911299868577"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -860,7 +882,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1186,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1701,6 +1723,33 @@
       <c r="G18" s="4">
         <f>E18/E17-1</f>
         <v>6.0633084022532202E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>6375945</v>
+      </c>
+      <c r="C19" s="5">
+        <f>B19/C1</f>
+        <v>0.18238186303135517</v>
+      </c>
+      <c r="D19" s="4">
+        <f>B19/B18-1</f>
+        <v>1.6411294314344405E-2</v>
+      </c>
+      <c r="E19">
+        <v>1077503</v>
+      </c>
+      <c r="F19" s="5">
+        <f>E19/F1</f>
+        <v>0.62549117610009219</v>
+      </c>
+      <c r="G19" s="4">
+        <f>E19/E18-1</f>
+        <v>4.5037066316637731E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Analyze.xlsx
+++ b/Analyze.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>原始大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>多一個char記錄，用以代替之前的#if Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正config(只讀TRAFFIC, THREAT)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -237,8 +241,8 @@
           <c:yMode val="edge"/>
           <c:x val="8.0747406574178227E-2"/>
           <c:y val="1.0907096593147226E-2"/>
-          <c:w val="0.83850518685164288"/>
-          <c:h val="0.82425095863868403"/>
+          <c:w val="0.83850518685164266"/>
+          <c:h val="0.82425095863868425"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -288,7 +292,7 @@
               <c:f>[0]!DELTA1</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -339,6 +343,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.6411294314344405E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.5684733792402539E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -388,7 +395,7 @@
               <c:f>[0]!DELTA2</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -439,13 +446,16 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>4.5037066316637731E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6.728519549366041E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="158551424"/>
-        <c:axId val="158549888"/>
+        <c:axId val="157896064"/>
+        <c:axId val="157894528"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -501,7 +511,7 @@
             <c:strRef>
               <c:f>[0]!NAMES</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>(1.00) 初版</c:v>
                 </c:pt>
@@ -552,6 +562,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>多一個char記錄，用以代替之前的#if Action</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>修正config(只讀TRAFFIC, THREAT)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -561,7 +574,7 @@
               <c:f>Sheet1!DATA1</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.57249153766313787</c:v>
                 </c:pt>
@@ -612,6 +625,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.18238186303135517</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17952125206114594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -685,7 +701,7 @@
             <c:strRef>
               <c:f>[0]!NAMES</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>(1.00) 初版</c:v>
                 </c:pt>
@@ -736,6 +752,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>多一個char記錄，用以代替之前的#if Action</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>修正config(只讀TRAFFIC, THREAT)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -745,7 +764,7 @@
               <c:f>[0]!DATA2</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.85102147794300764</c:v>
                 </c:pt>
@@ -796,17 +815,20 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.62549117610009219</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.62507031313945771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="158534272"/>
-        <c:axId val="158548352"/>
+        <c:axId val="151190144"/>
+        <c:axId val="157892992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158534272"/>
+        <c:axId val="151190144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -814,14 +836,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="158548352"/>
+        <c:crossAx val="157892992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158548352"/>
+        <c:axId val="157892992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -831,12 +853,12 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158534272"/>
+        <c:crossAx val="151190144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="158549888"/>
+        <c:axId val="157894528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -845,19 +867,19 @@
         <c:axPos val="r"/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158551424"/>
+        <c:crossAx val="157896064"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="158551424"/>
+        <c:axId val="157896064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="158549888"/>
+        <c:crossAx val="157894528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -873,7 +895,7 @@
           <c:x val="0.84234096460485863"/>
           <c:y val="0.72192975878015264"/>
           <c:w val="0.12988101487314085"/>
-          <c:h val="0.12927911299868577"/>
+          <c:h val="0.12927911299868572"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -882,7 +904,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1208,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G19" sqref="G19:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1750,6 +1772,33 @@
       <c r="G19" s="4">
         <f>E19/E18-1</f>
         <v>4.5037066316637731E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>6275940</v>
+      </c>
+      <c r="C20" s="5">
+        <f>B20/C1</f>
+        <v>0.17952125206114594</v>
+      </c>
+      <c r="D20" s="4">
+        <f>B20/B19-1</f>
+        <v>-1.5684733792402539E-2</v>
+      </c>
+      <c r="E20">
+        <v>1076778</v>
+      </c>
+      <c r="F20" s="5">
+        <f>E20/F1</f>
+        <v>0.62507031313945771</v>
+      </c>
+      <c r="G20" s="4">
+        <f>E20/E19-1</f>
+        <v>-6.728519549366041E-4</v>
       </c>
     </row>
   </sheetData>
